--- a/output/date/2022-01-12/2022-01-12_팩스.xlsx
+++ b/output/date/2022-01-12/2022-01-12_팩스.xlsx
@@ -967,28 +967,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HP 2131 가정용 무한잉크 복합기 프린터기 팩스 WIFI 자동양면 SL-J1770FW</t>
+          <t>삼성 가정용 프린터기 SL-J2160W 무한잉크복합기 J1770FW 팩스 무선 민원24</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81021543506</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12547443122</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8102154/81021543506.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1254744/12547443122.5.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>44900</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>씨앤씨코리아</t>
+          <t>유니전산</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1033,28 +1033,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>삼성 가정용 프린터기 SL-J2160W 무한잉크복합기 J1770FW 팩스 무선 민원24</t>
+          <t>HP 2131 가정용 무한잉크 복합기 프린터기 팩스 WIFI 자동양면 SL-J1770FW</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12547443122</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81021543506</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1254744/12547443122.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8102154/81021543506.4.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>44900</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>유니전산</t>
+          <t>씨앤씨코리아</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>276000</t>
+          <t>274000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1363,28 +1363,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HP 6954 팩스복합기 무한잉크 충전 리필잉크세트 HP6962 HP6975 HP8022</t>
+          <t>HP6950 HP6960 HP6970 팩스복합기 + 대용량 스마트카트리지 3SET</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82816980902</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24893677186</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8281698/82816980902.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2489367/24893677186.1.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>149000</t>
+          <t>155430</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>에스앤피시스템</t>
+          <t>11번가</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1394,14 +1394,10 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>오피스젯</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
           <t>HP</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -1429,43 +1425,43 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>엡손 L6290 정품무한잉크</t>
+          <t>HP 6954 팩스복합기 무한잉크 충전 리필잉크세트 HP6962 HP6975 HP8022</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29524315619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82816980902</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2952431/29524315619.20211104160523.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8281698/82816980902.1.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>149000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>에스앤피시스템</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>엡손</t>
+          <t>오피스젯</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>엡손</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1495,41 +1491,45 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HP6950 HP6960 HP6970 팩스복합기 + 대용량 스마트카트리지 3SET</t>
+          <t>엡손 L6290 정품무한잉크</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24893677186</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29524315619</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2489367/24893677186.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2952431/29524315619.20211104160523.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>170880</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11번가</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>HP</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>엡손</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>엡손</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>276000</t>
+          <t>273990</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>276000</t>
+          <t>274000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2349,41 +2349,45 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>팩스복합기 복사기 a3 무한잉크복합기 가정용프린터기</t>
+          <t>엡손 L15150 정품 무한잉크</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29767960596</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22855866426</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2976796/29767960596.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2285586/22855866426.20200911192205.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>27000</t>
+          <t>999000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1프로잉크</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>캐논</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+          <t>엡손</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>엡손</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -2411,45 +2415,41 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>엡손 L15150 정품 무한잉크</t>
+          <t>팩스복합기 복사기 a3 무한잉크복합기 가정용프린터기</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22855866426</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29767960596</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2285586/22855866426.20200911192205.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2976796/29767960596.1.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>949000</t>
+          <t>27000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>1프로잉크</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>엡손</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>엡손</t>
-        </is>
-      </c>
+          <t>캐논</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>899000</t>
+          <t>949000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>493710</t>
+          <t>487900</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>128990</t>
+          <t>128140</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>194950</t>
+          <t>191360</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4887,28 +4887,28 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>HP오피스젯 프로 8710 복합기 프린터 HP8610 HP8710 무한잉크복합기 잉크포함</t>
+          <t>HP HP8730 + 무한공급기 1200ml 팩스복합기(잉크포함)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83000659837</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25502426614</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8300065/83000659837.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2550242/25502426614.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>259800</t>
+          <t>495000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>비비테크</t>
+          <t>G마켓</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4953,28 +4953,28 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>HP HP8730 + 무한공급기 1200ml 팩스복합기(잉크포함)</t>
+          <t>HP오피스젯 프로 8710 복합기 프린터 HP8610 HP8710 무한잉크복합기 잉크포함</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25502426614</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83000659837</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2550242/25502426614.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8300065/83000659837.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>495000</t>
+          <t>259800</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>G마켓</t>
+          <t>비비테크</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5298,7 +5298,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>601200</t>
+          <t>598160</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -5597,28 +5597,28 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>삼성SL-J1660 가정용프린터 무한잉크 리필킷 복합기 3배대용량 5255 WiFi 팩스</t>
+          <t>TR4540 (TR4500S) 무한잉크 복합기 프린터 팩스</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82986420586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12719631225</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8298642/82986420586.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1271963/12719631225.5.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>54900</t>
+          <t>174800</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>별다섯개잉크</t>
+          <t>스마트잉크</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -5628,12 +5628,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>캐논</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>캐논</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5663,28 +5663,28 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TR4540 (TR4500S) 무한잉크 복합기 프린터 팩스</t>
+          <t>삼성SL-J1660 가정용프린터 무한잉크 리필킷 복합기 3배대용량 5255 WiFi 팩스</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12719631225</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82986420586</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1271963/12719631225.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8298642/82986420586.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>174800</t>
+          <t>54900</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>스마트잉크</t>
+          <t>별다섯개잉크</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5694,12 +5694,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>캐논</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>캐논</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5795,28 +5795,28 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>무한잉크 컬러 잉크젯 프린터 가정용 사무실 업무용 무선 와이파이 팩스 복합기 프린트 스캔 복사</t>
+          <t>삼성 SL-J2160W SL-J1770FW 무한잉크 팩스복합기 잉크젯 프린터기 가정용</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83582955645</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11049108150</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8358295/83582955645.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1104910/11049108150.5.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>149000</t>
+          <t>178000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>정품인증판매점</t>
+          <t>잉크스타일</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5826,12 +5826,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>엡손</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>엡손</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5861,28 +5861,28 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>삼성 SL-J2160W SL-J1770FW 무한잉크 팩스복합기 잉크젯 프린터기 가정용</t>
+          <t>무한잉크 컬러 잉크젯 프린터 가정용 사무실 업무용 무선 와이파이 팩스 복합기 프린트 스캔 복사</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11049108150</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83582955645</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1104910/11049108150.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8358295/83582955645.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>178000</t>
+          <t>149000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>잉크스타일</t>
+          <t>정품인증판매점</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -5892,12 +5892,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>엡손</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>엡손</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6567,28 +6567,28 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>(엡손) L6490  정품 무한잉크 팩스복합기 잉크포함</t>
+          <t>Canon PIXMA G7090 정품무한 컬러잉크젯 팩스복합기</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30347917593</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21799742678</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3034791/30347917593.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2179974/21799742678.3.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1319000</t>
+          <t>331500</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>인터파크</t>
+          <t>11번가</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -6598,14 +6598,10 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>엡손</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>엡손</t>
-        </is>
-      </c>
+          <t>캐논</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -6633,28 +6629,28 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>캐논 잉크젯복합기 PIXMA G7091 무한 스캔 팩스 복사 양면 무선</t>
+          <t>(엡손) L6490  정품 무한잉크 팩스복합기 잉크포함</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83178821536</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30347917593</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8317882/83178821536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3034791/30347917593.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>467000</t>
+          <t>1319000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>올댓잉크</t>
+          <t>인터파크</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -6664,12 +6660,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>캐논</t>
+          <t>엡손</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>캐논</t>
+          <t>엡손</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6699,28 +6695,28 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Canon PIXMA G7090 정품무한 컬러잉크젯 팩스복합기</t>
+          <t>캐논 잉크젯복합기 PIXMA G7091 무한 스캔 팩스 복사 양면 무선</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21799742678</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83178821536</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2179974/21799742678.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8317882/83178821536.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>331500</t>
+          <t>467000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>11번가</t>
+          <t>올댓잉크</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -6733,7 +6729,11 @@
           <t>캐논</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>캐논</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -6761,43 +6761,43 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>삼성전자 SL-T1673FW 정품무한 잉크젯복합기 잉크포함 인쇄 복사 스캔 팩스 TBJF-1B0112</t>
+          <t>캐논 이코노믹 잉크 E4290 정품잉크포함</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83275734840</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17279170468</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8327573/83275734840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1727917/17279170468.20200812104048.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>11319000</t>
+          <t>148990</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>N 쇼핑몰</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>캐논</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>캐논</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6885,43 +6885,43 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>캐논 이코노믹 잉크 E4290 정품잉크포함</t>
+          <t>삼성전자 SL-T1673FW 정품무한 잉크젯복합기 잉크포함 인쇄 복사 스캔 팩스 TBJF-1B0112</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17279170468</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83275734840</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1727917/17279170468.20200812104048.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8327573/83275734840.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>148990</t>
+          <t>11319000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>N 쇼핑몰</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>캐논</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>캐논</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
